--- a/dist/document/dest/2020/10/ly van khai.xlsx
+++ b/dist/document/dest/2020/10/ly van khai.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Trình dược viên: Lý Văn Khải - 986409026 - roboticscm2018@gmail.com</v>
+        <v>Trình dược viên: Lý Văn Khải - 986409026  - roboticscm2018@gmail.com</v>
       </c>
     </row>
     <row r="4">

--- a/dist/document/dest/2020/10/ly van khai.xlsx
+++ b/dist/document/dest/2020/10/ly van khai.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Trình dược viên: Lý Văn Khải - 986409026  - roboticscm2018@gmail.com</v>
+        <v>Trình dược viên: Lý Văn Khải - 986409026 - roboticscm2018@gmail.com</v>
       </c>
     </row>
     <row r="4">
@@ -445,19 +445,19 @@
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>948</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>13000</v>
       </c>
       <c r="D6" s="1">
-        <v>12324000</v>
+        <v>260000</v>
       </c>
       <c r="E6" s="1">
         <v>55</v>
       </c>
       <c r="F6" s="1">
-        <v>6778200</v>
+        <v>143000</v>
       </c>
     </row>
     <row r="7">
@@ -545,35 +545,30 @@
         <v>TỔNG</v>
       </c>
       <c r="B11" s="1">
-        <v>5964</v>
+        <v>5036</v>
       </c>
       <c r="D11" s="1">
-        <v>35376244</v>
+        <v>23312244</v>
       </c>
       <c r="F11" s="1">
-        <v>16216537.6</v>
+        <v>9581337.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>File này được sinh ra bởi LamGift</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Powered by Lý Văn Khải - 0986 409 026 - roboticscm2018@gmail.com</v>
+        <v>File này được sinh ra bởi Yến Phạm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -626,29 +621,17 @@
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="D7" s="1">
-        <v>948</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
-        <v>Lý Thanh</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Lãm</v>
-      </c>
       <c r="D8" s="1">
-        <v>702</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="str">
-        <v>Lý Văn</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Phái</v>
-      </c>
       <c r="D9" s="1">
-        <v>246</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -732,17 +715,12 @@
         <v>TỔNG CỘNG</v>
       </c>
       <c r="D18" s="1">
-        <v>5964</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>File này được sinh ra bởi LamGift</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Powered by Lý Văn Khải - 0986 409 026 - roboticscm2018@gmail.com</v>
+        <v>File này được sinh ra bởi Yến Phạm</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +735,7 @@
     <mergeCell ref="A18:C18"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D20"/>
   </ignoredErrors>
 </worksheet>
 </file>